--- a/Tools/本地数据表/Sys_UIForm.xlsx
+++ b/Tools/本地数据表/Sys_UIForm.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24117"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouYouTools\本地数据表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2790554D-7C07-4A39-9190-DA6A3D55D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="5955" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="5955" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,13 +110,40 @@
   </si>
   <si>
     <t>Loading/UI_Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录流程背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_LogonBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/UI_LogonBG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/UI_Reg</t>
+  </si>
+  <si>
+    <t>FormChinese/UI_Reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -256,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -433,26 +454,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,15 +581,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -580,9 +601,61 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Tools/本地数据表/Sys_UIForm.xlsx
+++ b/Tools/本地数据表/Sys_UIForm.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524508B6-7325-41CF-BCD9-6C73F2F12CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="5955" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,13 +143,44 @@
   </si>
   <si>
     <t>FormChinese/UI_Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/UI_Login</t>
+  </si>
+  <si>
+    <t>FormChinese/UI_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/UI_Dialog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,19 +491,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -586,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -598,24 +635,24 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -627,21 +664,21 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -653,9 +690,61 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Tools/本地数据表/Sys_UIForm.xlsx
+++ b/Tools/本地数据表/Sys_UIForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524508B6-7325-41CF-BCD9-6C73F2F12CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FAEE4B-5AA5-4396-BD03-136552DCADCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>FormChinese/UI_Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanMulit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许多实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +526,7 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +551,11 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -565,8 +580,11 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -591,8 +609,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -617,8 +638,11 @@
       <c r="H4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -643,8 +667,11 @@
       <c r="H5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>101</v>
       </c>
@@ -669,8 +696,11 @@
       <c r="H6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>102</v>
       </c>
@@ -695,8 +725,11 @@
       <c r="H7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>103</v>
       </c>
@@ -721,8 +754,11 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>104</v>
       </c>
@@ -746,6 +782,9 @@
       </c>
       <c r="H9" t="s">
         <v>20</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/本地数据表/Sys_UIForm.xlsx
+++ b/Tools/本地数据表/Sys_UIForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FAEE4B-5AA5-4396-BD03-136552DCADCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD675F-9159-436A-A45F-B6FBA1264F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="0" windowWidth="28800" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>允许多实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示类型=普通 1=反切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +534,7 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +562,11 @@
       <c r="I1" t="s">
         <v>38</v>
       </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -583,8 +594,11 @@
       <c r="I2" t="s">
         <v>39</v>
       </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -612,8 +626,11 @@
       <c r="I3" t="s">
         <v>40</v>
       </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -641,8 +658,11 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -670,8 +690,11 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>101</v>
       </c>
@@ -699,8 +722,11 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>102</v>
       </c>
@@ -728,8 +754,11 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>103</v>
       </c>
@@ -757,8 +786,11 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>104</v>
       </c>
@@ -784,6 +816,9 @@
         <v>20</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
     </row>
